--- a/개발 4팀_프로젝트_정윤정_GanttChart.xlsx
+++ b/개발 4팀_프로젝트_정윤정_GanttChart.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t xml:space="preserve">※ 개발 4팀 프로젝트명 = 꿈꾸는 서재         </t>
   </si>
@@ -1203,6 +1203,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1224,12 +1266,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1250,42 +1286,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1564,10 +1564,10 @@
   <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1583,17 +1583,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1624,10 +1624,10 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1667,66 +1667,66 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="45"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
     </row>
     <row r="4" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="3">
         <v>43926</v>
       </c>
@@ -1813,49 +1813,49 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="54" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="54" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="54" t="s">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="54" t="s">
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="45"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="49"/>
     </row>
     <row r="6" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -2085,7 +2085,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="19" t="s">
         <v>33</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="19" t="s">
         <v>34</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="19" t="s">
         <v>35</v>
       </c>
@@ -2481,7 +2481,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="19" t="s">
         <v>36</v>
       </c>
@@ -2611,7 +2611,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="19" t="s">
         <v>37</v>
       </c>
@@ -2741,7 +2741,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
@@ -2983,7 +2983,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="43" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="12"/>
@@ -3113,7 +3113,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="14">
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="14">
@@ -3369,7 +3369,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="14">
@@ -3497,7 +3497,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="14">
@@ -3625,7 +3625,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="14">
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
@@ -3995,7 +3995,7 @@
       </c>
     </row>
     <row r="23" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="44" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="12"/>
@@ -4125,7 +4125,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="14">
@@ -4253,7 +4253,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="14">
@@ -4381,7 +4381,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="14">
@@ -4509,7 +4509,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="14">
@@ -4637,7 +4637,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="14">
@@ -4681,7 +4681,7 @@
       <c r="AI28" s="25"/>
     </row>
     <row r="29" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -4802,7 +4802,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
@@ -4923,7 +4923,7 @@
       </c>
     </row>
     <row r="31" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="45" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="12"/>
@@ -5053,7 +5053,7 @@
       </c>
     </row>
     <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="14">
@@ -5181,7 +5181,7 @@
       </c>
     </row>
     <row r="33" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="14">
@@ -5309,7 +5309,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="14">
@@ -5437,7 +5437,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="14">
@@ -5565,7 +5565,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="14">
@@ -5609,7 +5609,7 @@
       <c r="AI36" s="25"/>
     </row>
     <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -5730,7 +5730,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
@@ -5851,7 +5851,7 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="46" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -5983,7 +5983,7 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="14">
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="14">
@@ -6239,7 +6239,7 @@
       </c>
     </row>
     <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="14">
@@ -6367,7 +6367,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="14">
@@ -6495,7 +6495,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="14">
@@ -6539,7 +6539,7 @@
       <c r="AI44" s="25"/>
     </row>
     <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -6660,7 +6660,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="26"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
@@ -6781,10 +6781,10 @@
       </c>
     </row>
     <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="13"/>
@@ -6798,7 +6798,9 @@
         <f t="shared" ref="F47:F52" si="20">E47-D47+1</f>
         <v>4</v>
       </c>
-      <c r="G47" s="16"/>
+      <c r="G47" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="H47" s="17" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
@@ -6913,7 +6915,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="14">
@@ -7041,7 +7043,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="14">
@@ -7169,7 +7171,7 @@
       </c>
     </row>
     <row r="50" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="14">
@@ -7297,7 +7299,7 @@
       </c>
     </row>
     <row r="51" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="14">
@@ -7425,7 +7427,7 @@
       </c>
     </row>
     <row r="52" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="14">
@@ -7469,7 +7471,7 @@
       <c r="AI52" s="25"/>
     </row>
     <row r="53" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="21"/>
@@ -7590,7 +7592,7 @@
       </c>
     </row>
     <row r="54" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
       <c r="D54" s="28"/>
@@ -7711,7 +7713,7 @@
       </c>
     </row>
     <row r="55" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="12"/>
@@ -7841,7 +7843,7 @@
       </c>
     </row>
     <row r="56" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="14">
@@ -7969,7 +7971,7 @@
       </c>
     </row>
     <row r="57" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="14">
@@ -8097,7 +8099,7 @@
       </c>
     </row>
     <row r="58" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="14">
@@ -8225,7 +8227,7 @@
       </c>
     </row>
     <row r="59" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="14">
@@ -8353,7 +8355,7 @@
       </c>
     </row>
     <row r="60" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="14">
@@ -8481,7 +8483,7 @@
       </c>
     </row>
     <row r="61" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
@@ -8602,7 +8604,7 @@
       </c>
     </row>
     <row r="62" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="26"/>
       <c r="C62" s="27"/>
       <c r="D62" s="28"/>
@@ -38746,18 +38748,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="H3:AI3"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="V5:AB5"/>
-    <mergeCell ref="AC5:AI5"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:A5"/>
@@ -38767,6 +38757,18 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:AI3"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AC5:AI5"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A39:A46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H7:AI14">

--- a/개발 4팀_프로젝트_정윤정_GanttChart.xlsx
+++ b/개발 4팀_프로젝트_정윤정_GanttChart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t xml:space="preserve">로그아웃기능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인체크필터기능</t>
   </si>
   <si>
     <t xml:space="preserve">암호변경기능</t>
@@ -1495,7 +1498,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1507,7 +1510,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="8" style="0" width="4.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="8" style="0" width="4.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="12.01"/>
   </cols>
   <sheetData>
@@ -5245,7 +5248,9 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="45"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="47" t="s">
+        <v>37</v>
+      </c>
       <c r="C34" s="29"/>
       <c r="D34" s="23" t="n">
         <v>43929</v>
@@ -5787,10 +5792,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23" t="n">
@@ -6717,10 +6722,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="23" t="n">
@@ -7649,7 +7654,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
